--- a/COLETO, ASHLEY MAÑAGO.xlsx
+++ b/COLETO, ASHLEY MAÑAGO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7E3F93-43E6-494F-B101-CC719DD16A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>PERIOD</t>
   </si>
@@ -198,12 +199,15 @@
   </si>
   <si>
     <t>DOMESTIC 3/10/2023</t>
+  </si>
+  <si>
+    <t>11/28,29/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -868,7 +872,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -885,25 +889,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K127" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K127" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1210,34 +1214,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A31" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1258,7 +1262,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1278,7 +1282,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1298,7 +1302,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1306,7 +1310,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1319,7 +1323,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -1336,7 +1340,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1371,7 +1375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1380,7 +1384,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>13.75</v>
+        <v>23.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1390,12 +1394,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>15.75</v>
+        <v>23.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -1417,7 +1421,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>44562</v>
       </c>
@@ -1426,18 +1430,24 @@
         <v>1.25</v>
       </c>
       <c r="D11" s="40"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9">
+        <f>SUM(C11,E10)-D11</f>
+        <v>1.25</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H11" s="40"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9">
+        <f>SUM(G11,I10)-H11</f>
+        <v>1.25</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>44593</v>
       </c>
@@ -1446,18 +1456,24 @@
         <v>1.25</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9">
+        <f t="shared" ref="E12:E54" si="0">SUM(C12,E11)-D12</f>
+        <v>2.5</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H12" s="40"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9">
+        <f t="shared" ref="I12:I75" si="1">SUM(G12,I11)-H12</f>
+        <v>2.5</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>44621</v>
       </c>
@@ -1466,18 +1482,24 @@
         <v>1.25</v>
       </c>
       <c r="D13" s="40"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
       <c r="F13" s="20"/>
       <c r="G13" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H13" s="40"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="9">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>44652</v>
       </c>
@@ -1486,18 +1508,24 @@
         <v>1.25</v>
       </c>
       <c r="D14" s="40"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="F14" s="20"/>
       <c r="G14" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H14" s="40"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>44682</v>
       </c>
@@ -1510,20 +1538,26 @@
       <c r="D15" s="40">
         <v>2</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
       <c r="F15" s="20"/>
       <c r="G15" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H15" s="40"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="9">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
       <c r="J15" s="11"/>
       <c r="K15" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>44713</v>
       </c>
@@ -1534,7 +1568,10 @@
         <v>1.25</v>
       </c>
       <c r="D16" s="40"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
       <c r="F16" s="20"/>
       <c r="G16" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -1543,13 +1580,16 @@
       <c r="H16" s="40">
         <v>1</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
       <c r="J16" s="11"/>
       <c r="K16" s="48">
         <v>44736</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>44743</v>
       </c>
@@ -1560,20 +1600,26 @@
         <v>1.25</v>
       </c>
       <c r="D17" s="40"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
       <c r="F17" s="20"/>
       <c r="G17" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H17" s="40"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="9">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>44774</v>
       </c>
@@ -1582,18 +1628,24 @@
         <v>1.25</v>
       </c>
       <c r="D18" s="40"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="F18" s="20"/>
       <c r="G18" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H18" s="40"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>44805</v>
       </c>
@@ -1604,7 +1656,10 @@
         <v>1.25</v>
       </c>
       <c r="D19" s="40"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>9.25</v>
+      </c>
       <c r="F19" s="20"/>
       <c r="G19" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -1613,13 +1668,16 @@
       <c r="H19" s="40">
         <v>2</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="9">
+        <f t="shared" si="1"/>
+        <v>8.25</v>
+      </c>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>44835</v>
       </c>
@@ -1628,18 +1686,24 @@
         <v>1.25</v>
       </c>
       <c r="D20" s="40"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
       <c r="F20" s="20"/>
       <c r="G20" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H20" s="40"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="9">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>44866</v>
       </c>
@@ -1648,18 +1712,24 @@
         <v>1.25</v>
       </c>
       <c r="D21" s="40"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>11.75</v>
+      </c>
       <c r="F21" s="20"/>
       <c r="G21" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H21" s="40"/>
-      <c r="I21" s="9"/>
+      <c r="I21" s="9">
+        <f t="shared" si="1"/>
+        <v>10.75</v>
+      </c>
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>44896</v>
       </c>
@@ -1672,36 +1742,48 @@
       <c r="D22" s="40">
         <v>3</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="F22" s="20"/>
       <c r="G22" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H22" s="40"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H23" s="40"/>
-      <c r="I23" s="9"/>
+      <c r="I23" s="9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>44927</v>
       </c>
@@ -1710,18 +1792,24 @@
         <v>1.25</v>
       </c>
       <c r="D24" s="40"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
       <c r="F24" s="20"/>
       <c r="G24" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H24" s="40"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="9">
+        <f t="shared" si="1"/>
+        <v>13.25</v>
+      </c>
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>44958</v>
       </c>
@@ -1730,18 +1818,24 @@
         <v>1.25</v>
       </c>
       <c r="D25" s="40"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
       <c r="F25" s="20"/>
       <c r="G25" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H25" s="40"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="9">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>44986</v>
       </c>
@@ -1752,164 +1846,240 @@
         <v>1.25</v>
       </c>
       <c r="D26" s="40"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
+      </c>
       <c r="F26" s="20"/>
       <c r="G26" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H26" s="40"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="9">
+        <f t="shared" si="1"/>
+        <v>15.75</v>
+      </c>
       <c r="J26" s="11"/>
       <c r="K26" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>45017</v>
       </c>
       <c r="B27" s="20"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D27" s="40"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="F27" s="20"/>
-      <c r="G27" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G27" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H27" s="40"/>
-      <c r="I27" s="9"/>
+      <c r="I27" s="9">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>45047</v>
       </c>
       <c r="B28" s="20"/>
-      <c r="C28" s="13"/>
+      <c r="C28" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D28" s="40"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>16.25</v>
+      </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G28" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H28" s="40"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>18.25</v>
+      </c>
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>45078</v>
       </c>
       <c r="B29" s="20"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D29" s="40"/>
-      <c r="E29" s="9"/>
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
       <c r="F29" s="20"/>
-      <c r="G29" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H29" s="40"/>
-      <c r="I29" s="9"/>
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
+      </c>
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>45108</v>
       </c>
       <c r="B30" s="20"/>
-      <c r="C30" s="13"/>
+      <c r="C30" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D30" s="40"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
       <c r="F30" s="20"/>
-      <c r="G30" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G30" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H30" s="40"/>
-      <c r="I30" s="9"/>
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>20.75</v>
+      </c>
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>45139</v>
       </c>
       <c r="B31" s="20"/>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D31" s="40"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="F31" s="20"/>
-      <c r="G31" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G31" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H31" s="40"/>
-      <c r="I31" s="9"/>
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>45170</v>
       </c>
       <c r="B32" s="20"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D32" s="40"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="9">
+        <f t="shared" si="0"/>
+        <v>21.25</v>
+      </c>
       <c r="F32" s="20"/>
-      <c r="G32" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G32" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H32" s="40"/>
-      <c r="I32" s="9"/>
+      <c r="I32" s="9">
+        <f t="shared" si="1"/>
+        <v>23.25</v>
+      </c>
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>45200</v>
       </c>
       <c r="B33" s="20"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D33" s="40"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="9">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
       <c r="F33" s="20"/>
-      <c r="G33" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G33" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H33" s="40"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="9">
+        <f t="shared" si="1"/>
+        <v>24.5</v>
+      </c>
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>45231</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D34" s="40"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="9">
+        <f t="shared" si="0"/>
+        <v>23.75</v>
+      </c>
       <c r="F34" s="20"/>
-      <c r="G34" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H34" s="40"/>
-      <c r="I34" s="9"/>
+      <c r="G34" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H34" s="40">
+        <v>2</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" si="1"/>
+        <v>23.75</v>
+      </c>
       <c r="J34" s="11"/>
-      <c r="K34" s="20"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>45261</v>
       </c>
@@ -1927,7 +2097,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="41">
         <v>45292</v>
       </c>
@@ -1945,7 +2115,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>45323</v>
       </c>
@@ -1963,7 +2133,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>45352</v>
       </c>
@@ -1981,7 +2151,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>45383</v>
       </c>
@@ -1999,7 +2169,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
         <v>45413</v>
       </c>
@@ -2017,7 +2187,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>45444</v>
       </c>
@@ -2035,7 +2205,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
         <v>45474</v>
       </c>
@@ -2053,7 +2223,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>45505</v>
       </c>
@@ -2071,7 +2241,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>45536</v>
       </c>
@@ -2089,7 +2259,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>45566</v>
       </c>
@@ -2107,7 +2277,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>45597</v>
       </c>
@@ -2125,7 +2295,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>45627</v>
       </c>
@@ -2143,7 +2313,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>45658</v>
       </c>
@@ -2161,7 +2331,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="41">
         <v>45689</v>
       </c>
@@ -2179,7 +2349,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>45717</v>
       </c>
@@ -2197,7 +2367,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41">
         <v>45748</v>
       </c>
@@ -2215,7 +2385,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>45778</v>
       </c>
@@ -2233,7 +2403,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>45809</v>
       </c>
@@ -2251,7 +2421,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>45839</v>
       </c>
@@ -2269,7 +2439,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2285,7 +2455,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2301,7 +2471,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2317,7 +2487,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2333,7 +2503,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2349,7 +2519,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2365,7 +2535,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2381,7 +2551,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2397,7 +2567,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2413,7 +2583,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2429,7 +2599,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2445,7 +2615,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2461,7 +2631,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2477,7 +2647,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2493,7 +2663,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2509,7 +2679,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2525,7 +2695,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2541,7 +2711,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2557,7 +2727,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2573,7 +2743,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2589,7 +2759,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="41"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2605,7 +2775,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2621,7 +2791,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2637,7 +2807,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2653,7 +2823,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2669,7 +2839,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2685,7 +2855,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2701,7 +2871,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2717,7 +2887,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2733,7 +2903,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2749,7 +2919,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2765,7 +2935,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -2781,7 +2951,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -2797,7 +2967,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -2813,7 +2983,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -2829,7 +2999,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -2845,7 +3015,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -2861,7 +3031,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -2877,7 +3047,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -2893,7 +3063,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -2909,7 +3079,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -2925,7 +3095,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="41"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -2941,7 +3111,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -2957,7 +3127,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -2973,7 +3143,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -2989,7 +3159,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3005,7 +3175,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3021,7 +3191,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3037,7 +3207,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3053,7 +3223,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3069,7 +3239,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3085,7 +3255,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3101,7 +3271,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3117,7 +3287,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="41"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3133,7 +3303,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="41"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3149,7 +3319,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="41"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3165,7 +3335,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="41"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3181,7 +3351,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="41"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3197,7 +3367,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="41"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3213,7 +3383,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="41"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3229,7 +3399,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3245,7 +3415,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="41"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3261,7 +3431,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="41"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3277,7 +3447,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="41"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3293,7 +3463,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="41"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3309,7 +3479,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="41"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3325,7 +3495,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="41"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3341,7 +3511,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="41"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3357,7 +3527,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="41"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3373,7 +3543,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3389,7 +3559,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="41"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3405,7 +3575,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="41"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3421,7 +3591,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="42"/>
       <c r="B127" s="15"/>
       <c r="C127" s="43"/>
@@ -3452,10 +3622,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3478,28 +3648,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
@@ -3512,7 +3682,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3541,7 +3711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3561,7 +3731,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -3576,10 +3746,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -3599,7 +3769,7 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -3625,7 +3795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -3651,7 +3821,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -3677,7 +3847,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -3703,7 +3873,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -3729,7 +3899,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -3755,7 +3925,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -3781,7 +3951,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -3807,7 +3977,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -3827,7 +3997,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -3847,7 +4017,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -3867,7 +4037,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -3888,7 +4058,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -3909,7 +4079,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -3930,7 +4100,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -3951,7 +4121,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -3972,7 +4142,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -3993,7 +4163,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -4014,7 +4184,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -4035,7 +4205,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -4056,7 +4226,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -4077,7 +4247,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -4098,7 +4268,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -4119,7 +4289,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -4140,7 +4310,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -4161,7 +4331,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -4182,7 +4352,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -4203,7 +4373,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -4224,7 +4394,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -4245,7 +4415,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -4266,7 +4436,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -4287,7 +4457,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -4296,7 +4466,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -4305,7 +4475,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -4314,7 +4484,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -4323,7 +4493,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -4332,7 +4502,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -4341,7 +4511,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -4350,7 +4520,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -4359,7 +4529,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -4368,7 +4538,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -4377,7 +4547,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -4386,7 +4556,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -4395,7 +4565,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -4404,7 +4574,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -4413,7 +4583,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -4422,7 +4592,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -4431,7 +4601,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -4440,7 +4610,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -4449,7 +4619,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -4458,7 +4628,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -4467,7 +4637,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -4476,7 +4646,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -4485,7 +4655,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -4494,7 +4664,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -4503,7 +4673,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -4512,7 +4682,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -4521,7 +4691,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -4530,7 +4700,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -4539,7 +4709,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -4548,7 +4718,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
